--- a/data/documentation/spreadsheets/done/Azure@azure-powershell.xlsx
+++ b/data/documentation/spreadsheets/done/Azure@azure-powershell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29769DD8-4678-4032-8F44-D94BD00D0A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA82C7-A86D-4C0A-8EB1-64515B5E2509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -546,18 +546,18 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.796875" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="41.80859375" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,22 +577,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -600,17 +600,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -618,7 +618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -626,7 +626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -634,12 +634,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -647,18 +647,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -666,58 +663,55 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -725,7 +719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -733,7 +727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -741,7 +735,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -749,7 +743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -757,7 +751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -765,7 +759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -773,7 +767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -781,7 +775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -789,7 +783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -797,7 +791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -805,7 +799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -813,7 +807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -821,7 +815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -829,7 +823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -837,7 +831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -845,7 +839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -853,7 +847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -861,7 +855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -869,7 +863,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -877,7 +871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -885,7 +879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -893,7 +887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -901,7 +895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -909,7 +903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -917,7 +911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -925,7 +919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>43</v>
       </c>
@@ -933,7 +927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>54</v>
       </c>
@@ -941,7 +935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>55</v>
       </c>
@@ -949,7 +943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
@@ -957,7 +951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
@@ -965,7 +959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
@@ -973,7 +967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>59</v>
       </c>
@@ -981,7 +975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -989,7 +983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
@@ -997,7 +991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
@@ -1005,7 +999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
@@ -1013,7 +1007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>64</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>65</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>66</v>
       </c>
